--- a/output/fit_clients/fit_round_489.xlsx
+++ b/output/fit_clients/fit_round_489.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2523732256.783522</v>
+        <v>2287542319.493407</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1149716364260768</v>
+        <v>0.07584571254980522</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03551128453238972</v>
+        <v>0.03918134997525988</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1261866194.481227</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2519141541.753147</v>
+        <v>1631807183.025109</v>
       </c>
       <c r="F3" t="n">
-        <v>0.180675953389524</v>
+        <v>0.1323178011524588</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03505485171609583</v>
+        <v>0.04589412923054029</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1259570891.35579</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3890084051.059811</v>
+        <v>3276859705.852449</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1636583455273057</v>
+        <v>0.1510507441322844</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02544756972471183</v>
+        <v>0.02622223812869577</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>176</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1945042031.946055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2936885586.9041</v>
+        <v>4043748663.873855</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09759632849576959</v>
+        <v>0.08539412545936334</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04322956956879353</v>
+        <v>0.04256340040379938</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>180</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1468442867.47547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1805427326.090684</v>
+        <v>1970245834.842448</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1460084189250799</v>
+        <v>0.105684985147771</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03953487233923536</v>
+        <v>0.03765283645907787</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>93</v>
-      </c>
-      <c r="J6" t="n">
-        <v>902713713.723159</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1931464586.459238</v>
+        <v>2188539652.715869</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08324715053529688</v>
+        <v>0.07243643854014817</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03791594314576201</v>
+        <v>0.04452272012343574</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>153</v>
-      </c>
-      <c r="J7" t="n">
-        <v>965732360.9871131</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3089616097.031679</v>
+        <v>3549416855.816387</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1858553362186544</v>
+        <v>0.1596810218188717</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0318809951252963</v>
+        <v>0.0295024928372716</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>155</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1544808115.214351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2252649016.463198</v>
+        <v>1539931689.403176</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1771169442992971</v>
+        <v>0.1496072169507563</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03624886041803913</v>
+        <v>0.03650402555360598</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1126324499.817982</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5756071066.852328</v>
+        <v>3718868694.926156</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1535343659684691</v>
+        <v>0.2019559814079067</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04530680885306942</v>
+        <v>0.05107607672043202</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>205</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2878035691.304918</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3671275576.797988</v>
+        <v>4069748569.536976</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1656506211033693</v>
+        <v>0.1863831640277506</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04537116532171747</v>
+        <v>0.03908518979750266</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>201</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1835637778.143511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2226148569.762622</v>
+        <v>2307052764.291466</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1224147036879689</v>
+        <v>0.1633223191982931</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03285900056178324</v>
+        <v>0.05393999212975226</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>166</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1113074232.037952</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3293121027.569264</v>
+        <v>5064854367.242042</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08040973324741055</v>
+        <v>0.07143690358030241</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0270741084658227</v>
+        <v>0.02982654098411647</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>164</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1646560604.637766</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2476782568.257412</v>
+        <v>2584420389.868936</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1866682937640241</v>
+        <v>0.1554697585358852</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03857310579170228</v>
+        <v>0.02938556180632166</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>156</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1238391356.48095</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1783073308.791585</v>
+        <v>1592746799.284572</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09144181246549335</v>
+        <v>0.07944013666423695</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03475449541246274</v>
+        <v>0.0405157724693523</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>891536804.1113068</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2632874664.117782</v>
+        <v>2905209294.921344</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1144771002129572</v>
+        <v>0.08259943766492973</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03300975205687474</v>
+        <v>0.04619866942742471</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>100</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1316437351.030288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3274546369.831152</v>
+        <v>3638179038.068099</v>
       </c>
       <c r="F17" t="n">
-        <v>0.135228449090496</v>
+        <v>0.1666584292025436</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04404052164200177</v>
+        <v>0.05196193698969191</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>143</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1637273255.41213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3311096639.744947</v>
+        <v>3772825821.154095</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1234755829907022</v>
+        <v>0.1195837111910453</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02124399375471543</v>
+        <v>0.0275747525633377</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>160</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1655548327.605442</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1099508621.516545</v>
+        <v>1017457164.132188</v>
       </c>
       <c r="F19" t="n">
-        <v>0.152713658890909</v>
+        <v>0.1457544635751546</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01669616614303742</v>
+        <v>0.01851511293614782</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>549754364.2765477</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1785110312.371081</v>
+        <v>2329821824.611794</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1439274569649744</v>
+        <v>0.1512772258282205</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02048007515428522</v>
+        <v>0.02359630186054388</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>68</v>
-      </c>
-      <c r="J20" t="n">
-        <v>892555205.4528955</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1971607802.940398</v>
+        <v>2284299836.427167</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0673816698435744</v>
+        <v>0.08333237158034043</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03044319671992889</v>
+        <v>0.04152731696569339</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>37</v>
-      </c>
-      <c r="J21" t="n">
-        <v>985803940.1706412</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3320156150.83883</v>
+        <v>3230020232.014697</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1377462579606522</v>
+        <v>0.09398266101494672</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03963150491365281</v>
+        <v>0.04408742765806855</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>136</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1660078117.799483</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1240709993.884197</v>
+        <v>1286428658.579431</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1311313716957452</v>
+        <v>0.1565965256299547</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0471237790821926</v>
+        <v>0.05431735226383038</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>620355026.613003</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2970564288.619445</v>
+        <v>3978532890.187418</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1039659059011588</v>
+        <v>0.1011615567475749</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0266160384924926</v>
+        <v>0.02281001061887996</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>145</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1485282181.552192</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>945813262.0645522</v>
+        <v>1132721826.92484</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1105268389290327</v>
+        <v>0.09873684874081444</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0217805169475609</v>
+        <v>0.02465744980549426</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>472906707.5246432</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1369762996.400295</v>
+        <v>1102472170.845487</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1159215013418835</v>
+        <v>0.1048180737356973</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03706931628276969</v>
+        <v>0.03650284450013766</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>684881560.7903366</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3319993759.599454</v>
+        <v>4435494944.267978</v>
       </c>
       <c r="F27" t="n">
-        <v>0.111864091273143</v>
+        <v>0.1493544556541402</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02572438302632635</v>
+        <v>0.02212891471514035</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>125</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1659996923.749837</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3675383605.411745</v>
+        <v>3721026788.143753</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1271790627039807</v>
+        <v>0.1036065021210206</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04558702449243443</v>
+        <v>0.0448039558854941</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>157</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1837691872.584976</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4845203495.940139</v>
+        <v>5352203132.887042</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1352242272504954</v>
+        <v>0.1223067502673757</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04303727106985008</v>
+        <v>0.04024265941672631</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>216</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2422601706.245779</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1877505868.073429</v>
+        <v>1787812212.64156</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08545776653850276</v>
+        <v>0.1334144914406923</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02825778914442311</v>
+        <v>0.02967960950747651</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>938752957.5419043</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1216645818.969149</v>
+        <v>1319041541.113007</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07572928719537482</v>
+        <v>0.09982190794014456</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05105810281662332</v>
+        <v>0.04682402423562679</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>608322857.0441774</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1508819927.285234</v>
+        <v>1460140165.830118</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08543887403177937</v>
+        <v>0.08361189232590266</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0299858734767861</v>
+        <v>0.03720448649802846</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>754410033.84858</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2989861559.300467</v>
+        <v>2247574876.156045</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1851307297671339</v>
+        <v>0.1867361028701277</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05539404392502459</v>
+        <v>0.04756254180997556</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>151</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1494930776.157173</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1253571499.946129</v>
+        <v>1368074008.856389</v>
       </c>
       <c r="F34" t="n">
-        <v>0.101503744228137</v>
+        <v>0.102646747284274</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02461905737399039</v>
+        <v>0.02741155581772904</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>626785746.3088075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>988156743.5419891</v>
+        <v>843263851.1520312</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08118286430634238</v>
+        <v>0.0730533527925195</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0412852832357707</v>
+        <v>0.03620002006628573</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>494078392.9688186</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2465915087.673014</v>
+        <v>2691672752.482244</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1740700535944936</v>
+        <v>0.1364519418777148</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02038975410077041</v>
+        <v>0.0249812874593681</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>124</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1232957568.576236</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2014389043.774037</v>
+        <v>2018727231.464946</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1039215490232096</v>
+        <v>0.09634892798045729</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03155985772067373</v>
+        <v>0.03509643006286127</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>134</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1007194551.163299</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1822844886.078679</v>
+        <v>2124196406.761297</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1148711338019886</v>
+        <v>0.1185303397845966</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03243429233762782</v>
+        <v>0.03445068067738814</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>911422446.7134717</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2210570760.8782</v>
+        <v>2182384000.984712</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1552945434510683</v>
+        <v>0.1198198805417956</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03198294241729632</v>
+        <v>0.02245742324945737</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1105285343.069245</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1448028472.404588</v>
+        <v>1361511690.47569</v>
       </c>
       <c r="F40" t="n">
-        <v>0.104015912003958</v>
+        <v>0.1532577582349559</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0417369539834948</v>
+        <v>0.05533910371335441</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>724014215.4406666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2727999039.216822</v>
+        <v>2719827361.538971</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1039155200067098</v>
+        <v>0.1211108519717823</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04238055412173566</v>
+        <v>0.04713461688134377</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>119</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1363999522.636912</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3904986293.547474</v>
+        <v>2865962341.869367</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1181058299329662</v>
+        <v>0.09426268107283504</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03372934504956709</v>
+        <v>0.03933013074583031</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>161</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1952493169.516119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2624946845.817213</v>
+        <v>2764750171.981847</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1565569341197689</v>
+        <v>0.1945661967794275</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02344801791703415</v>
+        <v>0.02133490325190115</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>169</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1312473459.033818</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2039132372.518119</v>
+        <v>2364034722.012402</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09296096477628077</v>
+        <v>0.08615274072168513</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03033419583289098</v>
+        <v>0.03022682641050729</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1019566300.435453</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1685178584.671071</v>
+        <v>2251931950.056595</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1201911262923543</v>
+        <v>0.158130129880977</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04148745527789647</v>
+        <v>0.05027693418786534</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>842589251.5364138</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5116645842.769833</v>
+        <v>4465436109.823568</v>
       </c>
       <c r="F46" t="n">
-        <v>0.112333644311268</v>
+        <v>0.1119996660001746</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05908582484734645</v>
+        <v>0.04474652904973259</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>173</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2558322954.868506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4544367007.441997</v>
+        <v>4164537720.641107</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1297675077649082</v>
+        <v>0.1947643062364385</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04386777160454999</v>
+        <v>0.05048453073443417</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>131</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2272183533.711605</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3241028011.579859</v>
+        <v>4536477071.706684</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09356828406700068</v>
+        <v>0.08567737774762584</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02776171322301058</v>
+        <v>0.03728798061127814</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>159</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1620514084.325468</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1861318876.820987</v>
+        <v>1436618507.708415</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1196873096650602</v>
+        <v>0.1230298400145323</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04413341768480711</v>
+        <v>0.04226819355591103</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>930659414.2694849</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3701266038.280357</v>
+        <v>3814234283.768652</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1498404411411333</v>
+        <v>0.1698417984812427</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05056424283940591</v>
+        <v>0.04133378446132908</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>166</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1850633029.090439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1259389327.852322</v>
+        <v>1122711294.275359</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1257432198183994</v>
+        <v>0.1758408812838664</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04578818459290592</v>
+        <v>0.03832880924340021</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>629694705.8802819</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4480374793.119391</v>
+        <v>3422388609.968113</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08859479828264738</v>
+        <v>0.1210494555997218</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04472699976575502</v>
+        <v>0.04461582981687857</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>201</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2240187424.790967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2664555136.919794</v>
+        <v>2579433329.881834</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1436668349003409</v>
+        <v>0.1791983733782881</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02405851749186814</v>
+        <v>0.02967264777562234</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>142</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1332277624.107816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3959415487.314862</v>
+        <v>3927738449.483013</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1030101068261384</v>
+        <v>0.1135254802751029</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05067011399055855</v>
+        <v>0.04721707915928998</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>159</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1979707804.56538</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3724230174.917862</v>
+        <v>4503214410.015778</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1555844349644828</v>
+        <v>0.1737651515263071</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02353726931185864</v>
+        <v>0.02225005049100141</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>136</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1862115050.222358</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1145613770.306349</v>
+        <v>1445488286.680793</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1266220458731507</v>
+        <v>0.1509335626878014</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04360892881928838</v>
+        <v>0.04013304040404096</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>572806979.939602</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4044402473.951911</v>
+        <v>3797894926.075976</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1353489109153423</v>
+        <v>0.1337559658842994</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01921573292495458</v>
+        <v>0.02301536889283197</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>156</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2022201329.093547</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1623325447.236775</v>
+        <v>1767002913.654257</v>
       </c>
       <c r="F58" t="n">
-        <v>0.19613247704514</v>
+        <v>0.1300554109520472</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03419646905996657</v>
+        <v>0.02632200634817065</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>811662743.5253544</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5398831592.487575</v>
+        <v>5250723607.56924</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08132886196388019</v>
+        <v>0.1214739210005415</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03427806207247572</v>
+        <v>0.03158557973212289</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>138</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2699415704.739371</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2863878399.845031</v>
+        <v>2933343907.791916</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1679523149837193</v>
+        <v>0.1493997399903762</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03316224555439898</v>
+        <v>0.02848890654039284</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>156</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1431939256.019655</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2063827445.069738</v>
+        <v>2677459766.393819</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1498640582700116</v>
+        <v>0.1576396453910113</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0314518011922808</v>
+        <v>0.03110304187187402</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>168</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1031913791.31042</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2081057398.374216</v>
+        <v>1861531308.907274</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1587696674322334</v>
+        <v>0.1889416009445027</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0437785225732745</v>
+        <v>0.03767552504870874</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1040528769.454349</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5031947014.771765</v>
+        <v>3489187345.387638</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06526870703458929</v>
+        <v>0.07366899440422162</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03574544390474223</v>
+        <v>0.03756433207734589</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>139</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2515973523.727335</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4732894368.567134</v>
+        <v>3496862709.573251</v>
       </c>
       <c r="F64" t="n">
-        <v>0.170845931034442</v>
+        <v>0.1292293093842233</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0229480151567961</v>
+        <v>0.02886425054559943</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>153</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2366447271.720036</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5130198858.778832</v>
+        <v>4604618364.676147</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1577733691052509</v>
+        <v>0.1278105693077639</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02109699587461087</v>
+        <v>0.02559838297536785</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>175</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2565099380.558275</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5175651174.091403</v>
+        <v>4110571369.54937</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1434395843629498</v>
+        <v>0.1630860449380312</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04825939326432433</v>
+        <v>0.03650250520643711</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>143</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2587825623.638116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2975865476.273353</v>
+        <v>2526869105.208388</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06367902438269799</v>
+        <v>0.07677030026835374</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04729029076501109</v>
+        <v>0.03626627385075057</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>157</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1487932758.49654</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4907560700.057235</v>
+        <v>3983529878.371523</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09975343081985182</v>
+        <v>0.1482019179221288</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03572455239978847</v>
+        <v>0.04459477484429183</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>156</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2453780400.83064</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2246748922.73694</v>
+        <v>1690802948.916065</v>
       </c>
       <c r="F69" t="n">
-        <v>0.126276640373564</v>
+        <v>0.1138618759806031</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04622414174674337</v>
+        <v>0.04926579138110627</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1123374498.23682</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3596894330.379883</v>
+        <v>3074142984.141639</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08430708442000404</v>
+        <v>0.1000198633638679</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04910336876192393</v>
+        <v>0.03233100911981136</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>140</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1798447181.056838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5139810235.242743</v>
+        <v>4065475805.784163</v>
       </c>
       <c r="F71" t="n">
-        <v>0.133042648501362</v>
+        <v>0.1328642030448103</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02879042404301603</v>
+        <v>0.03189646511018866</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>177</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2569905233.762664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1820459621.515066</v>
+        <v>1760637906.858203</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08361710633929434</v>
+        <v>0.09594554387704771</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04607338860134537</v>
+        <v>0.03992996706148837</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>910229786.0903839</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3334349707.535761</v>
+        <v>2744546536.543421</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1026344900992461</v>
+        <v>0.07139307788399921</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04886277431653551</v>
+        <v>0.03957809809560472</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>184</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1667174819.157872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2431695808.269691</v>
+        <v>2480012592.60517</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1219327788356878</v>
+        <v>0.1797557672479899</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02948176285479956</v>
+        <v>0.02476244844104613</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>166</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1215848018.684851</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1987543285.94893</v>
+        <v>2172840906.873809</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1037465481480602</v>
+        <v>0.1350502841203779</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03474751918479186</v>
+        <v>0.02939936991066438</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>993771608.4121451</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4767983329.8837</v>
+        <v>3699167516.957639</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1171765293384814</v>
+        <v>0.09232414783522458</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0262370875487428</v>
+        <v>0.02996814347442191</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2383991681.90549</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1676910045.958197</v>
+        <v>1636633834.603109</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1210232119980368</v>
+        <v>0.1784275331313173</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02109355347127536</v>
+        <v>0.03081394729433366</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>838455036.7767658</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3992527462.03348</v>
+        <v>2989028097.096853</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09196402753384175</v>
+        <v>0.1020821341362764</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0507133867782119</v>
+        <v>0.05403571116986346</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>170</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1996263697.309907</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1410140925.4114</v>
+        <v>1701458938.0747</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1694572477452364</v>
+        <v>0.146319348698848</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02594824687104795</v>
+        <v>0.02546329558484169</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>705070481.2151389</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5466283781.887586</v>
+        <v>4263248610.764295</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07560662844284893</v>
+        <v>0.09033523574467213</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02522131054114364</v>
+        <v>0.03568018649955255</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2733141963.386799</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3485928368.433078</v>
+        <v>4583021481.496057</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1316133329256301</v>
+        <v>0.1358614313997024</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02003710476651652</v>
+        <v>0.02988603406322543</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1742964128.371183</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5116249230.40314</v>
+        <v>5285078987.714332</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1333525102113206</v>
+        <v>0.1774391110080852</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02657052733814758</v>
+        <v>0.02447100082381139</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>172</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2558124592.685971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2448921530.770576</v>
+        <v>2273355534.37932</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1282032264299536</v>
+        <v>0.1503550977107954</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04061885779731247</v>
+        <v>0.03468819958626778</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1224460806.620795</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2451303105.421102</v>
+        <v>2488229405.416631</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0889820707553563</v>
+        <v>0.0917087315485775</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03275672155062475</v>
+        <v>0.03842430966937578</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>8</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1225651491.69847</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2458774344.47051</v>
+        <v>2593909805.091368</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1379828997522409</v>
+        <v>0.1744750233000868</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04453785366726066</v>
+        <v>0.04062759914732961</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>183</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1229387172.646027</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1883577637.488688</v>
+        <v>2733716706.35865</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1592152531317082</v>
+        <v>0.1157905622061465</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02033408289063978</v>
+        <v>0.0207058915190531</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>60</v>
-      </c>
-      <c r="J86" t="n">
-        <v>941788830.193063</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1018956608.158058</v>
+        <v>1182851231.72746</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1675954619630502</v>
+        <v>0.1708529291138241</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02904969185946973</v>
+        <v>0.03070641578955656</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>509478313.283005</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3294739445.742846</v>
+        <v>2949841616.503595</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1370733041489154</v>
+        <v>0.165683608514535</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02957492117912374</v>
+        <v>0.02555181098112437</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>194</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1647369782.461131</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2769471479.299557</v>
+        <v>2557977362.163002</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1199296673659212</v>
+        <v>0.1052215951168616</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0261148170068655</v>
+        <v>0.02723302506544876</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>166</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1384735794.694353</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1746338544.076439</v>
+        <v>1674484673.864</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08464402659833793</v>
+        <v>0.1235711264435419</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05545965058213092</v>
+        <v>0.05236668234492736</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>873169295.8488338</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1737922360.065896</v>
+        <v>1927109008.598053</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1499361943098768</v>
+        <v>0.1415469777070832</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06092090451991047</v>
+        <v>0.04679191171184115</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>868961187.2828436</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2537413890.756031</v>
+        <v>2314032411.372336</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09616109269029079</v>
+        <v>0.0748659077807329</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04489644068932638</v>
+        <v>0.03772748337912318</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>133</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1268706932.166786</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3618315689.307855</v>
+        <v>4091801298.137875</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1176025883790486</v>
+        <v>0.1341446726889951</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03938867666256787</v>
+        <v>0.05386637788132125</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>150</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1809157869.956534</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1792357251.755747</v>
+        <v>1613055051.579366</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1450847758073842</v>
+        <v>0.1442690303349392</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02747150928364079</v>
+        <v>0.04179899107609555</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>896178597.2119062</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2169931107.764023</v>
+        <v>2380586431.837259</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0982936966514265</v>
+        <v>0.1009544150079123</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0419827241530639</v>
+        <v>0.03855851274073449</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>118</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1084965613.983409</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2226506892.085526</v>
+        <v>1476147425.5226</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1012402889849791</v>
+        <v>0.12600448235829</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0364171226777124</v>
+        <v>0.04472833570303016</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1113253408.854389</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3430863796.40773</v>
+        <v>4766972158.222551</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1585451870569489</v>
+        <v>0.1612800620369787</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02732849032789032</v>
+        <v>0.02188843579223345</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>158</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1715431908.836374</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3938904198.650357</v>
+        <v>3329737926.787918</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09251749250069584</v>
+        <v>0.1099765598609072</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02127361107085016</v>
+        <v>0.0301857640407308</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>134</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1969452147.694881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2494854679.670466</v>
+        <v>3210294699.710048</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1255131626618387</v>
+        <v>0.1367282484806686</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03101875299229065</v>
+        <v>0.02653267438891304</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>155</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1247427289.261672</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4522236591.015773</v>
+        <v>2889725274.257923</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1133125111915958</v>
+        <v>0.1459005267065817</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02248133436891041</v>
+        <v>0.02360222309215329</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>151</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2261118407.901454</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2850947706.055737</v>
+        <v>3201611232.184271</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1584874626381832</v>
+        <v>0.1900753676342709</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05152026711367099</v>
+        <v>0.04074950539487501</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>198</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1425473922.395506</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_489.xlsx
+++ b/output/fit_clients/fit_round_489.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2287542319.493407</v>
+        <v>2201188672.309277</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07584571254980522</v>
+        <v>0.09587679023794542</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03918134997525988</v>
+        <v>0.03913910907546613</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1631807183.025109</v>
+        <v>1836878175.564711</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1323178011524588</v>
+        <v>0.1429683731363227</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04589412923054029</v>
+        <v>0.04116864105967836</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3276859705.852449</v>
+        <v>3422972939.573065</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1510507441322844</v>
+        <v>0.160725241314015</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02622223812869577</v>
+        <v>0.03001109161905603</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4043748663.873855</v>
+        <v>3566669490.941852</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08539412545936334</v>
+        <v>0.09697827075313419</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04256340040379938</v>
+        <v>0.04967133528599881</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1970245834.842448</v>
+        <v>1789223539.892955</v>
       </c>
       <c r="F6" t="n">
-        <v>0.105684985147771</v>
+        <v>0.1405432237156124</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03765283645907787</v>
+        <v>0.04953995521146337</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2188539652.715869</v>
+        <v>2836887546.81877</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07243643854014817</v>
+        <v>0.06662749814416939</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04452272012343574</v>
+        <v>0.04866999845888276</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3549416855.816387</v>
+        <v>2661256820.157108</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1596810218188717</v>
+        <v>0.1846836220131757</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0295024928372716</v>
+        <v>0.02023972632420715</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1539931689.403176</v>
+        <v>1853388358.611154</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1496072169507563</v>
+        <v>0.1603872293796182</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03650402555360598</v>
+        <v>0.02292242089796933</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3718868694.926156</v>
+        <v>4901633408.390231</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2019559814079067</v>
+        <v>0.2030860336380059</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05107607672043202</v>
+        <v>0.04721823052260626</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4069748569.536976</v>
+        <v>3786617492.167939</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1863831640277506</v>
+        <v>0.1771145124298205</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03908518979750266</v>
+        <v>0.04043575348855328</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2307052764.291466</v>
+        <v>3297436422.738388</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1633223191982931</v>
+        <v>0.1399550150943736</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05393999212975226</v>
+        <v>0.03373098857103338</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5064854367.242042</v>
+        <v>4907280947.944316</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07143690358030241</v>
+        <v>0.09901759191741392</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02982654098411647</v>
+        <v>0.02767097526385197</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2584420389.868936</v>
+        <v>2897119905.491655</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1554697585358852</v>
+        <v>0.1331269191684924</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02938556180632166</v>
+        <v>0.04233581679241978</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1592746799.284572</v>
+        <v>1344806880.315181</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07944013666423695</v>
+        <v>0.09318374485586151</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0405157724693523</v>
+        <v>0.03496980344106611</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2905209294.921344</v>
+        <v>2347104885.390922</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08259943766492973</v>
+        <v>0.1165140986314758</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04619866942742471</v>
+        <v>0.03317329842581337</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3638179038.068099</v>
+        <v>5251660916.792613</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1666584292025436</v>
+        <v>0.1637310656596359</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05196193698969191</v>
+        <v>0.04511157947671628</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3772825821.154095</v>
+        <v>2785563803.771064</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1195837111910453</v>
+        <v>0.1332118517342682</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0275747525633377</v>
+        <v>0.03102774018163953</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1017457164.132188</v>
+        <v>1012227331.817399</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1457544635751546</v>
+        <v>0.1865644044457553</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01851511293614782</v>
+        <v>0.01921605135093134</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2329821824.611794</v>
+        <v>2215049753.004762</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1512772258282205</v>
+        <v>0.1449951165549525</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02359630186054388</v>
+        <v>0.03130566336108147</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2284299836.427167</v>
+        <v>2071909973.514073</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08333237158034043</v>
+        <v>0.08616049419987361</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04152731696569339</v>
+        <v>0.0318153554940103</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3230020232.014697</v>
+        <v>2447318110.69488</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09398266101494672</v>
+        <v>0.1148705317456396</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04408742765806855</v>
+        <v>0.03773258711543762</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1286428658.579431</v>
+        <v>1304337435.944628</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1565965256299547</v>
+        <v>0.1714165237057801</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05431735226383038</v>
+        <v>0.04091159952549044</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3978532890.187418</v>
+        <v>3842689344.709736</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1011615567475749</v>
+        <v>0.09054471191033338</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02281001061887996</v>
+        <v>0.02486102345683426</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1132721826.92484</v>
+        <v>1016550306.947115</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09873684874081444</v>
+        <v>0.100539811553482</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02465744980549426</v>
+        <v>0.01916093890882294</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1102472170.845487</v>
+        <v>1414415897.634168</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1048180737356973</v>
+        <v>0.0883821787906038</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03650284450013766</v>
+        <v>0.03429863733275181</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4435494944.267978</v>
+        <v>3939397847.897757</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1493544556541402</v>
+        <v>0.1150236196146568</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02212891471514035</v>
+        <v>0.0244433904211039</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3721026788.143753</v>
+        <v>3465178554.947941</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1036065021210206</v>
+        <v>0.1443370254503288</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0448039558854941</v>
+        <v>0.04293887023627234</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5352203132.887042</v>
+        <v>3989809215.193443</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1223067502673757</v>
+        <v>0.1037697612194424</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04024265941672631</v>
+        <v>0.04490276725565721</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1787812212.64156</v>
+        <v>1833445969.946837</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1334144914406923</v>
+        <v>0.1350509294299027</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02967960950747651</v>
+        <v>0.02744846138490412</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1319041541.113007</v>
+        <v>1304232242.671575</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09982190794014456</v>
+        <v>0.08838761974558505</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04682402423562679</v>
+        <v>0.04753392183246504</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,16 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1460140165.830118</v>
+        <v>1603480425.943361</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08361189232590266</v>
+        <v>0.1101902575901774</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03720448649802846</v>
+        <v>0.03296762954874809</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2247574876.156045</v>
+        <v>2805332683.646617</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1867361028701277</v>
+        <v>0.1601091116087478</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04756254180997556</v>
+        <v>0.04460101392170522</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1368074008.856389</v>
+        <v>1510522557.02056</v>
       </c>
       <c r="F34" t="n">
-        <v>0.102646747284274</v>
+        <v>0.0795128217716818</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02741155581772904</v>
+        <v>0.02011338908445342</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>843263851.1520312</v>
+        <v>1099199247.90121</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0730533527925195</v>
+        <v>0.07655204487363845</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03620002006628573</v>
+        <v>0.03808097724602968</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2691672752.482244</v>
+        <v>2226618647.773944</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1364519418777148</v>
+        <v>0.1728223004265668</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0249812874593681</v>
+        <v>0.0255228041058857</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2018727231.464946</v>
+        <v>2044868685.346864</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09634892798045729</v>
+        <v>0.1054441989347213</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03509643006286127</v>
+        <v>0.03621342612738843</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2124196406.761297</v>
+        <v>1949708227.542903</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1185303397845966</v>
+        <v>0.07734156769757981</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03445068067738814</v>
+        <v>0.03269462166509631</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2182384000.984712</v>
+        <v>1597071818.314399</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1198198805417956</v>
+        <v>0.1458383489401189</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02245742324945737</v>
+        <v>0.02987596075967998</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1361511690.47569</v>
+        <v>1554213217.881864</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1532577582349559</v>
+        <v>0.1418364544581135</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05533910371335441</v>
+        <v>0.05548427735635415</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2719827361.538971</v>
+        <v>2091999399.031488</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1211108519717823</v>
+        <v>0.1071881580895003</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04713461688134377</v>
+        <v>0.04198450767372078</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2865962341.869367</v>
+        <v>2725042745.019176</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09426268107283504</v>
+        <v>0.126317228274415</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03933013074583031</v>
+        <v>0.0296791117145148</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2764750171.981847</v>
+        <v>2334638902.281796</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1945661967794275</v>
+        <v>0.1881250127837074</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02133490325190115</v>
+        <v>0.0224687991692095</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2364034722.012402</v>
+        <v>1558674294.102932</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08615274072168513</v>
+        <v>0.07639649482565229</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03022682641050729</v>
+        <v>0.02773665491669438</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2251931950.056595</v>
+        <v>2226574987.705102</v>
       </c>
       <c r="F45" t="n">
-        <v>0.158130129880977</v>
+        <v>0.1320371312785641</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05027693418786534</v>
+        <v>0.04516055933771347</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4465436109.823568</v>
+        <v>4754324033.091735</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1119996660001746</v>
+        <v>0.1418048694819263</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04474652904973259</v>
+        <v>0.03835955088628476</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4164537720.641107</v>
+        <v>4838877317.431028</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1947643062364385</v>
+        <v>0.1978088195444516</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05048453073443417</v>
+        <v>0.05228516136726293</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4536477071.706684</v>
+        <v>3903768404.550265</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08567737774762584</v>
+        <v>0.08698276913416819</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03728798061127814</v>
+        <v>0.03838369230590693</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1436618507.708415</v>
+        <v>1542853713.363314</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1230298400145323</v>
+        <v>0.1281913423258903</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04226819355591103</v>
+        <v>0.03678582270002805</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3814234283.768652</v>
+        <v>3528694940.087742</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1698417984812427</v>
+        <v>0.1106152864943556</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04133378446132908</v>
+        <v>0.04112338565605316</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1122711294.275359</v>
+        <v>1438073865.321199</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1758408812838664</v>
+        <v>0.1676571986319015</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03832880924340021</v>
+        <v>0.05421030263712243</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3422388609.968113</v>
+        <v>3423911198.083735</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1210494555997218</v>
+        <v>0.1090276311672058</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04461582981687857</v>
+        <v>0.04076248876754985</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2579433329.881834</v>
+        <v>2691332593.147727</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1791983733782881</v>
+        <v>0.1657953014843057</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02967264777562234</v>
+        <v>0.02825441088736791</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3927738449.483013</v>
+        <v>4740844577.567234</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1135254802751029</v>
+        <v>0.1327478700171714</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04721707915928998</v>
+        <v>0.04468840124451471</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4503214410.015778</v>
+        <v>3631970600.674131</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1737651515263071</v>
+        <v>0.1728502889324207</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02225005049100141</v>
+        <v>0.02037312607531389</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1445488286.680793</v>
+        <v>1579422905.701357</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1509335626878014</v>
+        <v>0.1212557010668588</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04013304040404096</v>
+        <v>0.05279834278949927</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3797894926.075976</v>
+        <v>4390977769.794671</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1337559658842994</v>
+        <v>0.1208426274246819</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02301536889283197</v>
+        <v>0.01955989276603928</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1767002913.654257</v>
+        <v>1394605964.230313</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1300554109520472</v>
+        <v>0.1567787030871565</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02632200634817065</v>
+        <v>0.0325751281819212</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5250723607.56924</v>
+        <v>3749575916.663448</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1214739210005415</v>
+        <v>0.1048569334070757</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03158557973212289</v>
+        <v>0.03977425471506397</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2933343907.791916</v>
+        <v>2618334156.035742</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1493997399903762</v>
+        <v>0.1692984173734401</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02848890654039284</v>
+        <v>0.0208510655755299</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2677459766.393819</v>
+        <v>2590994947.955663</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1576396453910113</v>
+        <v>0.1513162090736724</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03110304187187402</v>
+        <v>0.0315211772218107</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1861531308.907274</v>
+        <v>1943772370.388341</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1889416009445027</v>
+        <v>0.138619442469698</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03767552504870874</v>
+        <v>0.04865793201429411</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3489187345.387638</v>
+        <v>3944705367.286263</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07366899440422162</v>
+        <v>0.1056237137798701</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03756433207734589</v>
+        <v>0.04273070897281178</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3496862709.573251</v>
+        <v>5176215931.39819</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1292293093842233</v>
+        <v>0.1697705491815227</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02886425054559943</v>
+        <v>0.03344183262164355</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4604618364.676147</v>
+        <v>5047601585.711431</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1278105693077639</v>
+        <v>0.1288308062307221</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02559838297536785</v>
+        <v>0.02921575474209359</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4110571369.54937</v>
+        <v>3753477680.290286</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1630860449380312</v>
+        <v>0.1101569491698446</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03650250520643711</v>
+        <v>0.04273856256488912</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2526869105.208388</v>
+        <v>3194212013.893375</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07677030026835374</v>
+        <v>0.1018158896077536</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03626627385075057</v>
+        <v>0.03394521477767357</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3983529878.371523</v>
+        <v>5311566659.792862</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1482019179221288</v>
+        <v>0.1246203722112789</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04459477484429183</v>
+        <v>0.04844833223772937</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1690802948.916065</v>
+        <v>1989440010.210557</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1138618759806031</v>
+        <v>0.1477999244923688</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04926579138110627</v>
+        <v>0.04405766787875882</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3074142984.141639</v>
+        <v>2628606217.605074</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1000198633638679</v>
+        <v>0.1030095589134548</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03233100911981136</v>
+        <v>0.03704785039174409</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4065475805.784163</v>
+        <v>4063620211.322681</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1328642030448103</v>
+        <v>0.1145408359978122</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03189646511018866</v>
+        <v>0.02285579969544339</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1760637906.858203</v>
+        <v>1821937479.075257</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09594554387704771</v>
+        <v>0.09170765512781402</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03992996706148837</v>
+        <v>0.04175418077267649</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2744546536.543421</v>
+        <v>2515409013.350203</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07139307788399921</v>
+        <v>0.08828151050871699</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03957809809560472</v>
+        <v>0.03957354419333525</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2480012592.60517</v>
+        <v>3905082127.831312</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1797557672479899</v>
+        <v>0.1586838956501039</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02476244844104613</v>
+        <v>0.02239308596470136</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2172840906.873809</v>
+        <v>2154941819.229252</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1350502841203779</v>
+        <v>0.1305291748729346</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02939936991066438</v>
+        <v>0.03181972459492562</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3699167516.957639</v>
+        <v>4527331414.848336</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09232414783522458</v>
+        <v>0.1245119055910746</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02996814347442191</v>
+        <v>0.02717440269312139</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1636633834.603109</v>
+        <v>2159854009.255614</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1784275331313173</v>
+        <v>0.1680908074997939</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03081394729433366</v>
+        <v>0.02818886969778502</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2989028097.096853</v>
+        <v>2909271693.151668</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1020821341362764</v>
+        <v>0.1277365691060559</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05403571116986346</v>
+        <v>0.05375527641385696</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,16 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1701458938.0747</v>
+        <v>1600503266.198815</v>
       </c>
       <c r="F79" t="n">
-        <v>0.146319348698848</v>
+        <v>0.1345758953383105</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02546329558484169</v>
+        <v>0.0384626367822286</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4263248610.764295</v>
+        <v>4565673447.210159</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09033523574467213</v>
+        <v>0.0734720783944174</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03568018649955255</v>
+        <v>0.0348297783728064</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4583021481.496057</v>
+        <v>3738827919.691287</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1358614313997024</v>
+        <v>0.1023555311887054</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02988603406322543</v>
+        <v>0.02932084847008446</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,16 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5285078987.714332</v>
+        <v>4631778962.619614</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1774391110080852</v>
+        <v>0.1320334322827533</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02447100082381139</v>
+        <v>0.0270867545651271</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2273355534.37932</v>
+        <v>2114199865.938126</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1503550977107954</v>
+        <v>0.1109858755558554</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03468819958626778</v>
+        <v>0.03238154885523611</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2488229405.416631</v>
+        <v>2285622398.416007</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0917087315485775</v>
+        <v>0.1030115399529092</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03842430966937578</v>
+        <v>0.03435936878499422</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2593909805.091368</v>
+        <v>3052695826.748267</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1744750233000868</v>
+        <v>0.1475554883964183</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04062759914732961</v>
+        <v>0.05021134374501279</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2733716706.35865</v>
+        <v>2197636419.588573</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1157905622061465</v>
+        <v>0.1088154547037689</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0207058915190531</v>
+        <v>0.02196306782410058</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1182851231.72746</v>
+        <v>1252806008.337639</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1708529291138241</v>
+        <v>0.1615854197426516</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03070641578955656</v>
+        <v>0.04250748648174738</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,16 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2949841616.503595</v>
+        <v>3279798355.102336</v>
       </c>
       <c r="F88" t="n">
-        <v>0.165683608514535</v>
+        <v>0.1718143310694637</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02555181098112437</v>
+        <v>0.02593191796877262</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2557977362.163002</v>
+        <v>2784067278.481187</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1052215951168616</v>
+        <v>0.1171842188666378</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02723302506544876</v>
+        <v>0.02639368811337942</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1674484673.864</v>
+        <v>1534333463.509626</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1235711264435419</v>
+        <v>0.1025696984108629</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05236668234492736</v>
+        <v>0.04047386782935761</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1927109008.598053</v>
+        <v>1393482726.384919</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1415469777070832</v>
+        <v>0.1767108004142423</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04679191171184115</v>
+        <v>0.06167760875870679</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2314032411.372336</v>
+        <v>2613411526.428141</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0748659077807329</v>
+        <v>0.06679029909361704</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03772748337912318</v>
+        <v>0.03384453917784321</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4091801298.137875</v>
+        <v>4404354651.822223</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1341446726889951</v>
+        <v>0.126980993976243</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05386637788132125</v>
+        <v>0.05154197020455505</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,16 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1613055051.579366</v>
+        <v>2249533289.334679</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1442690303349392</v>
+        <v>0.1451115629707599</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04179899107609555</v>
+        <v>0.04159931458729366</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2380586431.837259</v>
+        <v>2553578191.639038</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1009544150079123</v>
+        <v>0.1147816856119576</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03855851274073449</v>
+        <v>0.05171887318689704</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1476147425.5226</v>
+        <v>2229886158.096601</v>
       </c>
       <c r="F96" t="n">
-        <v>0.12600448235829</v>
+        <v>0.119320037258038</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04472833570303016</v>
+        <v>0.03141836063219105</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4766972158.222551</v>
+        <v>5337103168.390608</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1612800620369787</v>
+        <v>0.1461958459397775</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02188843579223345</v>
+        <v>0.01977520608686729</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3329737926.787918</v>
+        <v>3122854647.767391</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1099765598609072</v>
+        <v>0.08983531168235072</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0301857640407308</v>
+        <v>0.02514343506006713</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3210294699.710048</v>
+        <v>2758251484.157113</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1367282484806686</v>
+        <v>0.1398352752591276</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02653267438891304</v>
+        <v>0.02384098701016066</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2889725274.257923</v>
+        <v>3509099458.337181</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1459005267065817</v>
+        <v>0.1706833951120205</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02360222309215329</v>
+        <v>0.02584820909961703</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3201611232.184271</v>
+        <v>2750067903.155089</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1900753676342709</v>
+        <v>0.1819803766496467</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04074950539487501</v>
+        <v>0.05098300734778281</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_489.xlsx
+++ b/output/fit_clients/fit_round_489.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2201188672.309277</v>
+        <v>1842680881.101769</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09587679023794542</v>
+        <v>0.08510533695988631</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03913910907546613</v>
+        <v>0.03822161050390688</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1836878175.564711</v>
+        <v>2129543580.909931</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1429683731363227</v>
+        <v>0.1311525888414418</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04116864105967836</v>
+        <v>0.0336149984561804</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3422972939.573065</v>
+        <v>3901620247.542792</v>
       </c>
       <c r="F4" t="n">
-        <v>0.160725241314015</v>
+        <v>0.1151213033731821</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03001109161905603</v>
+        <v>0.02854584696444281</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>246</v>
+      </c>
+      <c r="J4" t="n">
+        <v>489</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3566669490.941852</v>
+        <v>3266193103.925119</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09697827075313419</v>
+        <v>0.1095528309705715</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04967133528599881</v>
+        <v>0.0477697318811541</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>207</v>
+      </c>
+      <c r="J5" t="n">
+        <v>486</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1789223539.892955</v>
+        <v>1784909246.107383</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1405432237156124</v>
+        <v>0.1423475961849205</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04953995521146337</v>
+        <v>0.04628624964073222</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +676,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2836887546.81877</v>
+        <v>2722383359.232534</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06662749814416939</v>
+        <v>0.08974243772804143</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04866999845888276</v>
+        <v>0.04051257580438787</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +705,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2661256820.157108</v>
+        <v>3227941951.300298</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1846836220131757</v>
+        <v>0.1566939205557109</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02023972632420715</v>
+        <v>0.02889870492946076</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>137</v>
+      </c>
+      <c r="J8" t="n">
+        <v>489</v>
+      </c>
+      <c r="K8" t="n">
+        <v>35.71173695261</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1853388358.611154</v>
+        <v>2088595813.380048</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1603872293796182</v>
+        <v>0.1742411846079291</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02292242089796933</v>
+        <v>0.02967677194045534</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4901633408.390231</v>
+        <v>3780797427.33963</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2030860336380059</v>
+        <v>0.1548109158404848</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04721823052260626</v>
+        <v>0.04670769556120073</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>370</v>
+      </c>
+      <c r="J10" t="n">
+        <v>488</v>
+      </c>
+      <c r="K10" t="n">
+        <v>27.49435365370335</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3786617492.167939</v>
+        <v>3828398270.036117</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1771145124298205</v>
+        <v>0.1253112787235245</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04043575348855328</v>
+        <v>0.04699955771584912</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>205</v>
+      </c>
+      <c r="J11" t="n">
+        <v>489</v>
+      </c>
+      <c r="K11" t="n">
+        <v>32.22649834161943</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3297436422.738388</v>
+        <v>2142313316.04801</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1399550150943736</v>
+        <v>0.1910018715764828</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03373098857103338</v>
+        <v>0.0506876836161598</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +892,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4907280947.944316</v>
+        <v>4479363914.095365</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09901759191741392</v>
+        <v>0.08410357957055174</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02767097526385197</v>
+        <v>0.02830140246822592</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>253</v>
+      </c>
+      <c r="J13" t="n">
+        <v>488</v>
+      </c>
+      <c r="K13" t="n">
+        <v>26.49703785809172</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +923,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2897119905.491655</v>
+        <v>2964791548.430458</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1331269191684924</v>
+        <v>0.1649317112806573</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04233581679241978</v>
+        <v>0.04348480837028625</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>114</v>
+      </c>
+      <c r="J14" t="n">
+        <v>489</v>
+      </c>
+      <c r="K14" t="n">
+        <v>31.79967524124289</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1344806880.315181</v>
+        <v>1168501780.937104</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09318374485586151</v>
+        <v>0.07638731870358843</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03496980344106611</v>
+        <v>0.04271551847207194</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2347104885.390922</v>
+        <v>2767756653.808334</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1165140986314758</v>
+        <v>0.08689966724241584</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03317329842581337</v>
+        <v>0.03467652030243421</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1030,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5251660916.792613</v>
+        <v>4322966223.111365</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1637310656596359</v>
+        <v>0.1494947986170178</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04511157947671628</v>
+        <v>0.03505112238348821</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>238</v>
+      </c>
+      <c r="J17" t="n">
+        <v>489</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1065,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2785563803.771064</v>
+        <v>2813936693.910459</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1332118517342682</v>
+        <v>0.1664552752229301</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03102774018163953</v>
+        <v>0.02342556896373925</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>131</v>
+      </c>
+      <c r="J18" t="n">
+        <v>488</v>
+      </c>
+      <c r="K18" t="n">
+        <v>27.3297023159101</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1012227331.817399</v>
+        <v>1019240704.338129</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1865644044457553</v>
+        <v>0.1653747510994954</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01921605135093134</v>
+        <v>0.02185423995085205</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1137,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2215049753.004762</v>
+        <v>2577470435.008067</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1449951165549525</v>
+        <v>0.1231352714973408</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03130566336108147</v>
+        <v>0.02882505945436611</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1178,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2071909973.514073</v>
+        <v>2701749618.476343</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08616049419987361</v>
+        <v>0.06543518607819858</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0318153554940103</v>
+        <v>0.03885778928303352</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1207,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2447318110.69488</v>
+        <v>3193443951.316157</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1148705317456396</v>
+        <v>0.09434315222096559</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03773258711543762</v>
+        <v>0.04214116806447187</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>143</v>
+      </c>
+      <c r="J22" t="n">
+        <v>486</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1248,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1304337435.944628</v>
+        <v>1441257245.782219</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1714165237057801</v>
+        <v>0.1330895340475837</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04091159952549044</v>
+        <v>0.03692138875084063</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1277,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3842689344.709736</v>
+        <v>3690370819.490345</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09054471191033338</v>
+        <v>0.1343363240783906</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02486102345683426</v>
+        <v>0.02644228177554966</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>154</v>
+      </c>
+      <c r="J24" t="n">
+        <v>489</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1016550306.947115</v>
+        <v>951655763.0925151</v>
       </c>
       <c r="F25" t="n">
-        <v>0.100539811553482</v>
+        <v>0.07817908950449536</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01916093890882294</v>
+        <v>0.01977492540950588</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1414415897.634168</v>
+        <v>1034238560.79568</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0883821787906038</v>
+        <v>0.08154932675410777</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03429863733275181</v>
+        <v>0.02677442642696955</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1382,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3939397847.897757</v>
+        <v>3462082572.572795</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1150236196146568</v>
+        <v>0.1219350346439243</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0244433904211039</v>
+        <v>0.01883549184695096</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>219</v>
+      </c>
+      <c r="J27" t="n">
+        <v>488</v>
+      </c>
+      <c r="K27" t="n">
+        <v>28.00855234447047</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1419,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3465178554.947941</v>
+        <v>2630316632.619486</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1443370254503288</v>
+        <v>0.1117361742108865</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04293887023627234</v>
+        <v>0.0318454874521317</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>121</v>
+      </c>
+      <c r="J28" t="n">
+        <v>488</v>
+      </c>
+      <c r="K28" t="n">
+        <v>26.15488329756767</v>
       </c>
     </row>
     <row r="29">
@@ -1236,23 +1456,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3989809215.193443</v>
+        <v>3875955641.107232</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1037697612194424</v>
+        <v>0.1364559971442587</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04490276725565721</v>
+        <v>0.03178983074475322</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>385</v>
+      </c>
+      <c r="J29" t="n">
+        <v>489</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1833445969.946837</v>
+        <v>2280782700.598408</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1350509294299027</v>
+        <v>0.1371223419127681</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02744846138490412</v>
+        <v>0.02483186813098022</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1532,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1304232242.671575</v>
+        <v>1483728546.475901</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08838761974558505</v>
+        <v>0.07861949693019094</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04753392183246504</v>
+        <v>0.03661043589327595</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1603480425.943361</v>
+        <v>1446807971.298982</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1101902575901774</v>
+        <v>0.09686662025304076</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03296762954874809</v>
+        <v>0.02970467752564498</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2805332683.646617</v>
+        <v>2490378529.175367</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1601091116087478</v>
+        <v>0.2039081776612016</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04460101392170522</v>
+        <v>0.04823740162953792</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1510522557.02056</v>
+        <v>1434424129.748316</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0795128217716818</v>
+        <v>0.08731739932627872</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02011338908445342</v>
+        <v>0.02440657516376729</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1099199247.90121</v>
+        <v>1142508038.083177</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07655204487363845</v>
+        <v>0.07889418768084265</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03808097724602968</v>
+        <v>0.03256198763643899</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2226618647.773944</v>
+        <v>2309634317.41468</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1728223004265668</v>
+        <v>0.1542734660969457</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0255228041058857</v>
+        <v>0.02141739554127462</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2044868685.346864</v>
+        <v>2016101236.672955</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1054441989347213</v>
+        <v>0.109921351071583</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03621342612738843</v>
+        <v>0.03854545422554887</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1777,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1949708227.542903</v>
+        <v>1741084434.612745</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07734156769757981</v>
+        <v>0.0908248830169595</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03269462166509631</v>
+        <v>0.03396111643315365</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1597071818.314399</v>
+        <v>1577741746.251926</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1458383489401189</v>
+        <v>0.1517322805918142</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02987596075967998</v>
+        <v>0.02683447471783802</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1847,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1554213217.881864</v>
+        <v>1199951385.626534</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1418364544581135</v>
+        <v>0.1022755150021103</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05548427735635415</v>
+        <v>0.03845690853503891</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1882,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2091999399.031488</v>
+        <v>2428485184.371688</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1071881580895003</v>
+        <v>0.1309060201457473</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04198450767372078</v>
+        <v>0.03347624042841676</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1917,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2725042745.019176</v>
+        <v>3075732566.479253</v>
       </c>
       <c r="F42" t="n">
-        <v>0.126317228274415</v>
+        <v>0.1046625818145066</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0296791117145148</v>
+        <v>0.04665073544964181</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>210</v>
+      </c>
+      <c r="J42" t="n">
+        <v>487</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1952,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2334638902.281796</v>
+        <v>2228317240.634648</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1881250127837074</v>
+        <v>0.1731555398716328</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0224687991692095</v>
+        <v>0.02591717894894952</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1558674294.102932</v>
+        <v>1611387260.241282</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07639649482565229</v>
+        <v>0.08127279202373931</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02773665491669438</v>
+        <v>0.02561476991353941</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2022,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2226574987.705102</v>
+        <v>2261321176.319485</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1320371312785641</v>
+        <v>0.1294651611914507</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04516055933771347</v>
+        <v>0.03561545014711222</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2051,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4754324033.091735</v>
+        <v>3916819805.600311</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1418048694819263</v>
+        <v>0.1542657834023761</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03835955088628476</v>
+        <v>0.06132622130786919</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>287</v>
+      </c>
+      <c r="J46" t="n">
+        <v>489</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4838877317.431028</v>
+        <v>4335700150.875169</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1978088195444516</v>
+        <v>0.1449587286167965</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05228516136726293</v>
+        <v>0.05307361520133632</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>222</v>
+      </c>
+      <c r="J47" t="n">
+        <v>489</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2121,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3903768404.550265</v>
+        <v>4504257879.08684</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08698276913416819</v>
+        <v>0.1093855416908514</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03838369230590693</v>
+        <v>0.03284911511582904</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>245</v>
+      </c>
+      <c r="J48" t="n">
+        <v>489</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1542853713.363314</v>
+        <v>1642238694.47684</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1281913423258903</v>
+        <v>0.1672115761529012</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03678582270002805</v>
+        <v>0.04376047671581473</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2191,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3528694940.087742</v>
+        <v>3560506715.345298</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1106152864943556</v>
+        <v>0.1311386517277436</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04112338565605316</v>
+        <v>0.04734550374889426</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>176</v>
+      </c>
+      <c r="J50" t="n">
+        <v>489</v>
+      </c>
+      <c r="K50" t="n">
+        <v>31.99885517517654</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1438073865.321199</v>
+        <v>989931744.940948</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1676571986319015</v>
+        <v>0.1486898519749278</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05421030263712243</v>
+        <v>0.04159421640852649</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3423911198.083735</v>
+        <v>4992250827.584553</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1090276311672058</v>
+        <v>0.1389803032457042</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04076248876754985</v>
+        <v>0.04312320516640836</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>273</v>
+      </c>
+      <c r="J52" t="n">
+        <v>489</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,16 +2304,25 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2691332593.147727</v>
+        <v>2804150811.698484</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1657953014843057</v>
+        <v>0.1460920187595205</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02825441088736791</v>
+        <v>0.02792020432254078</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>77</v>
+      </c>
+      <c r="J53" t="n">
+        <v>488</v>
+      </c>
+      <c r="K53" t="n">
+        <v>31.71226816010423</v>
       </c>
     </row>
     <row r="54">
@@ -1942,16 +2341,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4740844577.567234</v>
+        <v>4207703323.774649</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1327478700171714</v>
+        <v>0.1342866858917245</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04468840124451471</v>
+        <v>0.04317632357796578</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>258</v>
+      </c>
+      <c r="J54" t="n">
+        <v>488</v>
+      </c>
+      <c r="K54" t="n">
+        <v>27.1094286298105</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2372,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3631970600.674131</v>
+        <v>3054903661.621221</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1728502889324207</v>
+        <v>0.1984459479090585</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02037312607531389</v>
+        <v>0.02739861517274064</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>241</v>
+      </c>
+      <c r="J55" t="n">
+        <v>487</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1579422905.701357</v>
+        <v>1467063311.806448</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1212557010668588</v>
+        <v>0.1280960498281436</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05279834278949927</v>
+        <v>0.03663496436214968</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2448,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4390977769.794671</v>
+        <v>2895114007.615517</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1208426274246819</v>
+        <v>0.142528794355297</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01955989276603928</v>
+        <v>0.01909267260438299</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>211</v>
+      </c>
+      <c r="J57" t="n">
+        <v>487</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2483,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1394605964.230313</v>
+        <v>1838960170.754979</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1567787030871565</v>
+        <v>0.1351250827057376</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0325751281819212</v>
+        <v>0.03240011132897906</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3749575916.663448</v>
+        <v>4210670025.910086</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1048569334070757</v>
+        <v>0.1254583256279596</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03977425471506397</v>
+        <v>0.03640131163211774</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>240</v>
+      </c>
+      <c r="J59" t="n">
+        <v>488</v>
+      </c>
+      <c r="K59" t="n">
+        <v>26.17689614204777</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2555,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2618334156.035742</v>
+        <v>3525171804.559308</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1692984173734401</v>
+        <v>0.1434998989981149</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0208510655755299</v>
+        <v>0.03114839034767191</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>98</v>
+      </c>
+      <c r="J60" t="n">
+        <v>489</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2590994947.955663</v>
+        <v>2391703393.66745</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1513162090736724</v>
+        <v>0.1521357124114117</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0315211772218107</v>
+        <v>0.02872467071237661</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1943772370.388341</v>
+        <v>1690103607.452206</v>
       </c>
       <c r="F62" t="n">
-        <v>0.138619442469698</v>
+        <v>0.1565765828363962</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04865793201429411</v>
+        <v>0.04041886728003607</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3944705367.286263</v>
+        <v>5308605228.617703</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1056237137798701</v>
+        <v>0.1002726127665791</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04273070897281178</v>
+        <v>0.03948629197192001</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>244</v>
+      </c>
+      <c r="J63" t="n">
+        <v>488</v>
+      </c>
+      <c r="K63" t="n">
+        <v>27.23299935202984</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2691,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5176215931.39819</v>
+        <v>4376718927.356964</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1697705491815227</v>
+        <v>0.1392192415772231</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03344183262164355</v>
+        <v>0.02653235714207323</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>243</v>
+      </c>
+      <c r="J64" t="n">
+        <v>489</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5047601585.711431</v>
+        <v>3828921996.483882</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1288308062307221</v>
+        <v>0.1295103073624572</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02921575474209359</v>
+        <v>0.02583282496720795</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>342</v>
+      </c>
+      <c r="J65" t="n">
+        <v>488</v>
+      </c>
+      <c r="K65" t="n">
+        <v>25.8242291985488</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2769,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3753477680.290286</v>
+        <v>5187515778.661003</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1101569491698446</v>
+        <v>0.1560763597826287</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04273856256488912</v>
+        <v>0.03333020561420798</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>242</v>
+      </c>
+      <c r="J66" t="n">
+        <v>489</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3194212013.893375</v>
+        <v>2962644132.878435</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1018158896077536</v>
+        <v>0.07958883729552378</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03394521477767357</v>
+        <v>0.04995210643089742</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2839,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5311566659.792862</v>
+        <v>3659837311.594662</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1246203722112789</v>
+        <v>0.09929576718954175</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04844833223772937</v>
+        <v>0.051077344799267</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>265</v>
+      </c>
+      <c r="J68" t="n">
+        <v>489</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1989440010.210557</v>
+        <v>1820914961.887355</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1477999244923688</v>
+        <v>0.1722227198881809</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04405766787875882</v>
+        <v>0.05639896286856027</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,16 +2909,25 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2628606217.605074</v>
+        <v>3514118789.295228</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1030095589134548</v>
+        <v>0.09499539031807629</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03704785039174409</v>
+        <v>0.04854668203882803</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>74</v>
+      </c>
+      <c r="J70" t="n">
+        <v>489</v>
+      </c>
+      <c r="K70" t="n">
+        <v>47.62885841507649</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4063620211.322681</v>
+        <v>4845570845.114861</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1145408359978122</v>
+        <v>0.1643366545933227</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02285579969544339</v>
+        <v>0.02076004078588442</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>329</v>
+      </c>
+      <c r="J71" t="n">
+        <v>488</v>
+      </c>
+      <c r="K71" t="n">
+        <v>26.99384462196073</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1821937479.075257</v>
+        <v>1374642336.508762</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09170765512781402</v>
+        <v>0.08114596214047168</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04175418077267649</v>
+        <v>0.03419205386101288</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2515409013.350203</v>
+        <v>3214684338.816729</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08828151050871699</v>
+        <v>0.08117065210462655</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03957354419333525</v>
+        <v>0.03574001836349183</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>46</v>
+      </c>
+      <c r="J73" t="n">
+        <v>481</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3905082127.831312</v>
+        <v>2629744474.512962</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1586838956501039</v>
+        <v>0.1650655720156339</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02239308596470136</v>
+        <v>0.03320778487020409</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>144</v>
+      </c>
+      <c r="J74" t="n">
+        <v>485</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2154941819.229252</v>
+        <v>2030583572.480315</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1305291748729346</v>
+        <v>0.1469981583181945</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03181972459492562</v>
+        <v>0.03163996083933109</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4527331414.848336</v>
+        <v>5270542291.74159</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1245119055910746</v>
+        <v>0.09113259465275574</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02717440269312139</v>
+        <v>0.0268024999281367</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>234</v>
+      </c>
+      <c r="J76" t="n">
+        <v>489</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2159854009.255614</v>
+        <v>1532666393.931494</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1680908074997939</v>
+        <v>0.1784063996722892</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02818886969778502</v>
+        <v>0.02467423795323989</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2909271693.151668</v>
+        <v>4700980420.445457</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1277365691060559</v>
+        <v>0.1164991732948717</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05375527641385696</v>
+        <v>0.0568139882098019</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>243</v>
+      </c>
+      <c r="J78" t="n">
+        <v>488</v>
+      </c>
+      <c r="K78" t="n">
+        <v>30.49540669674829</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1600503266.198815</v>
+        <v>1372159933.995519</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1345758953383105</v>
+        <v>0.136878705351494</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0384626367822286</v>
+        <v>0.03616209112235983</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3259,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4565673447.210159</v>
+        <v>3517868820.602448</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0734720783944174</v>
+        <v>0.06895249600376949</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0348297783728064</v>
+        <v>0.03136503474203448</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>239</v>
+      </c>
+      <c r="J80" t="n">
+        <v>488</v>
+      </c>
+      <c r="K80" t="n">
+        <v>25.11156358989506</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3296,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3738827919.691287</v>
+        <v>3751857257.591957</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1023555311887054</v>
+        <v>0.1316380288758801</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02932084847008446</v>
+        <v>0.03037236171659821</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>229</v>
+      </c>
+      <c r="J81" t="n">
+        <v>488</v>
+      </c>
+      <c r="K81" t="n">
+        <v>28.31526186373861</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4631778962.619614</v>
+        <v>3526686569.861404</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1320334322827533</v>
+        <v>0.1718014058824016</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0270867545651271</v>
+        <v>0.02733573661836009</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>319</v>
+      </c>
+      <c r="J82" t="n">
+        <v>489</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3374,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2114199865.938126</v>
+        <v>2449191804.038129</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1109858755558554</v>
+        <v>0.1437668644112513</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03238154885523611</v>
+        <v>0.04328431156130299</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3409,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2285622398.416007</v>
+        <v>2384466998.774098</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1030115399529092</v>
+        <v>0.07280325011752481</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03435936878499422</v>
+        <v>0.03295767479773026</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3052695826.748267</v>
+        <v>2753592434.442398</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1475554883964183</v>
+        <v>0.1765971806274352</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05021134374501279</v>
+        <v>0.04178079578149319</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>74</v>
+      </c>
+      <c r="J85" t="n">
+        <v>485</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3479,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2197636419.588573</v>
+        <v>1765764703.704759</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1088154547037689</v>
+        <v>0.1674612522867003</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02196306782410058</v>
+        <v>0.01953055567365762</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1252806008.337639</v>
+        <v>1267959296.658927</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1615854197426516</v>
+        <v>0.1896850405593194</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04250748648174738</v>
+        <v>0.03022605032886005</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3279798355.102336</v>
+        <v>2289094973.599387</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1718143310694637</v>
+        <v>0.1319091433449226</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02593191796877262</v>
+        <v>0.03014546317193686</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>71</v>
+      </c>
+      <c r="J88" t="n">
+        <v>485</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2784067278.481187</v>
+        <v>3438995072.343683</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1171842188666378</v>
+        <v>0.1599974695383989</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02639368811337942</v>
+        <v>0.03097987326921111</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>29</v>
+      </c>
+      <c r="J89" t="n">
+        <v>486</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3619,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1534333463.509626</v>
+        <v>2041892901.476595</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1025696984108629</v>
+        <v>0.09463484761194785</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04047386782935761</v>
+        <v>0.04077550128354717</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1393482726.384919</v>
+        <v>2003469968.849897</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1767108004142423</v>
+        <v>0.1556864099703648</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06167760875870679</v>
+        <v>0.0419757766685282</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3689,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2613411526.428141</v>
+        <v>1909475469.597281</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06679029909361704</v>
+        <v>0.07350084358394067</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03384453917784321</v>
+        <v>0.03577466790089007</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3718,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4404354651.822223</v>
+        <v>3255924804.102993</v>
       </c>
       <c r="F93" t="n">
-        <v>0.126980993976243</v>
+        <v>0.1044976639279803</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05154197020455505</v>
+        <v>0.05162515295193543</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>235</v>
+      </c>
+      <c r="J93" t="n">
+        <v>488</v>
+      </c>
+      <c r="K93" t="n">
+        <v>24.93483889690197</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2249533289.334679</v>
+        <v>2208184363.683746</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1451115629707599</v>
+        <v>0.157532590379919</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04159931458729366</v>
+        <v>0.03886644042925772</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2553578191.639038</v>
+        <v>2192133642.976398</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1147816856119576</v>
+        <v>0.1288409454750609</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05171887318689704</v>
+        <v>0.05116775854490308</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2229886158.096601</v>
+        <v>1614474944.381232</v>
       </c>
       <c r="F96" t="n">
-        <v>0.119320037258038</v>
+        <v>0.1146494259452924</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03141836063219105</v>
+        <v>0.03545168728144817</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5337103168.390608</v>
+        <v>4990960248.052415</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1461958459397775</v>
+        <v>0.106736781151634</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01977520608686729</v>
+        <v>0.0287399162137983</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>254</v>
+      </c>
+      <c r="J97" t="n">
+        <v>489</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3122854647.767391</v>
+        <v>2741674604.548525</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08983531168235072</v>
+        <v>0.1244426283304132</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02514343506006713</v>
+        <v>0.02772995995160507</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>124</v>
+      </c>
+      <c r="J98" t="n">
+        <v>480</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2758251484.157113</v>
+        <v>2496679433.179852</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1398352752591276</v>
+        <v>0.1416093219360598</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02384098701016066</v>
+        <v>0.03082141191348409</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3509099458.337181</v>
+        <v>3074611819.73735</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1706833951120205</v>
+        <v>0.1171816456289065</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02584820909961703</v>
+        <v>0.02670574263754713</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>228</v>
+      </c>
+      <c r="J100" t="n">
+        <v>487</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2750067903.155089</v>
+        <v>3434853188.92609</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1819803766496467</v>
+        <v>0.1883031629580927</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05098300734778281</v>
+        <v>0.05447107206633496</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
